--- a/Test/MC_Ssf/T1/Sensors_data_1000022.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000022.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9045265701670948</v>
+        <v>0.7020726612218338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002985264430611532</v>
+        <v>0.009315595856541433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07539436200446786</v>
+        <v>-0.0292769821692756</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04519135709501299</v>
+        <v>0.5080923492660183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0303104007047819</v>
+        <v>0.01561560854553196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4456299133050511</v>
+        <v>0.404265044203959</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4727200141403712</v>
+        <v>0.4717313622989572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01194338619072687</v>
+        <v>0.01196578008214479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2260893476657041</v>
+        <v>0.2094707240217206</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.017982405263498</v>
+        <v>-0.8968478865081051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1009900093069896</v>
+        <v>0.09492782752354267</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5736360183081674</v>
+        <v>0.5828808008699161</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7416886275756869</v>
+        <v>0.7190982778542584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009316394169255856</v>
+        <v>0.01013114963453384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2868638881634208</v>
+        <v>0.2869401952795783</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
